--- a/BusinessIntelligence/sample_data/Data Blending File Two.xlsx
+++ b/BusinessIntelligence/sample_data/Data Blending File Two.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo.oliveira\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA235A2-DA83-453D-BFAD-6407AF8BFF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dept Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,8 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +136,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -167,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +219,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,6 +271,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,16 +464,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -445,7 +501,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>(A2+10)</f>
         <v>20</v>
@@ -461,7 +517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A20" si="0">(A3+10)</f>
         <v>30</v>
@@ -477,7 +533,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -493,7 +549,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -509,7 +565,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -525,7 +581,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -541,7 +597,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -557,7 +613,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -573,10 +629,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
@@ -589,10 +644,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -605,10 +659,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -621,10 +674,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -637,10 +689,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -653,10 +704,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
@@ -669,10 +720,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
@@ -685,10 +736,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
@@ -701,10 +752,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
@@ -717,10 +768,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
@@ -735,29 +786,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>